--- a/0_dev/05b-responsive-image-code-generator.xlsx
+++ b/0_dev/05b-responsive-image-code-generator.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/One-More-Voice/0_dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DB9E62-7282-0C46-A961-599F0C604243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8894534-A99F-9A4A-959C-5DB9658A447C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="24940" windowHeight="15000" xr2:uid="{D7F1E4FB-83C6-3D46-B8AA-0A3209542C3D}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="24940" windowHeight="15000" activeTab="1" xr2:uid="{D7F1E4FB-83C6-3D46-B8AA-0A3209542C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Artifacts-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Site-images" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="74">
   <si>
     <t>artifact-images/thumbnails/</t>
   </si>
@@ -165,6 +167,96 @@
   </si>
   <si>
     <t>liv_021034_0001_thumbnail</t>
+  </si>
+  <si>
+    <t>srcset="site-images/</t>
+  </si>
+  <si>
+    <t>site-images/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1300px.jpg 1300w, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1000px.jpg 1000w, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-700px.jpg 700w, </t>
+  </si>
+  <si>
+    <t>-400px.jpg 400w"</t>
+  </si>
+  <si>
+    <t>liv_012001_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_000022_0003-0004_deriv</t>
+  </si>
+  <si>
+    <t>liv_000096_0004_ratio_by_0940_deriv</t>
+  </si>
+  <si>
+    <t>liv_003181_0002_deriv</t>
+  </si>
+  <si>
+    <t>liv_014094_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_020014_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_023001_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_023002_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_023003_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_023004_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_023006_0001_deriv</t>
+  </si>
+  <si>
+    <t>liv_023011_0001_deriv</t>
+  </si>
+  <si>
+    <t>0_template.html</t>
+  </si>
+  <si>
+    <t>analytical_priorities.html</t>
+  </si>
+  <si>
+    <t>artifacts.html</t>
+  </si>
+  <si>
+    <t>bibliography.html</t>
+  </si>
+  <si>
+    <t>books.html</t>
+  </si>
+  <si>
+    <t>coding_guidelines.html</t>
+  </si>
+  <si>
+    <t>collaboration.html</t>
+  </si>
+  <si>
+    <t>contributors.html</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>project_design.html</t>
+  </si>
+  <si>
+    <t>site_map.html</t>
+  </si>
+  <si>
+    <t>texts.html</t>
   </si>
 </sst>
 </file>
@@ -187,12 +279,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,11 +305,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76EE889-2F03-9C42-A971-4A8F67443811}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1607,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f t="shared" ref="A2:A38" si="2">I32</f>
+        <f t="shared" ref="A32:A38" si="2">I32</f>
         <v>srcset="artifact-images/thumbnails/liv_021028_0001_thumbnail-500px.jpg 500w, artifact-images/thumbnails/liv_021028_0001_thumbnail-400px.jpg 400w, artifact-images/thumbnails/liv_021028_0001_thumbnail-300px.jpg 300w, artifact-images/thumbnails/liv_021028_0001_thumbnail-200px.jpg 200w"</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1728,4 +1828,573 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55CCE0D-A363-4C4F-886E-C2516182AF41}">
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="str">
+        <f>I1</f>
+        <v>srcset="site-images/liv_000022_0003-0004_deriv-1300px.jpg 1300w, site-images/liv_000022_0003-0004_deriv-1000px.jpg 1000w, site-images/liv_000022_0003-0004_deriv-700px.jpg 700w, site-images/liv_000022_0003-0004_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="str">
+        <f>B1&amp;D1&amp;E1&amp;C1&amp;D1&amp;F1&amp;C1&amp;D1&amp;G1&amp;C1&amp;D1&amp;H1</f>
+        <v>srcset="site-images/liv_000022_0003-0004_deriv-1300px.jpg 1300w, site-images/liv_000022_0003-0004_deriv-1000px.jpg 1000w, site-images/liv_000022_0003-0004_deriv-700px.jpg 700w, site-images/liv_000022_0003-0004_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="str">
+        <f t="shared" ref="A2:A12" si="0">I2</f>
+        <v>srcset="site-images/liv_000096_0004_ratio_by_0940_deriv-1300px.jpg 1300w, site-images/liv_000096_0004_ratio_by_0940_deriv-1000px.jpg 1000w, site-images/liv_000096_0004_ratio_by_0940_deriv-700px.jpg 700w, site-images/liv_000096_0004_ratio_by_0940_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f t="shared" ref="I2:I12" si="1">B2&amp;D2&amp;E2&amp;C2&amp;D2&amp;F2&amp;C2&amp;D2&amp;G2&amp;C2&amp;D2&amp;H2</f>
+        <v>srcset="site-images/liv_000096_0004_ratio_by_0940_deriv-1300px.jpg 1300w, site-images/liv_000096_0004_ratio_by_0940_deriv-1000px.jpg 1000w, site-images/liv_000096_0004_ratio_by_0940_deriv-700px.jpg 700w, site-images/liv_000096_0004_ratio_by_0940_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_003181_0002_deriv-1300px.jpg 1300w, site-images/liv_003181_0002_deriv-1000px.jpg 1000w, site-images/liv_003181_0002_deriv-700px.jpg 700w, site-images/liv_003181_0002_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_003181_0002_deriv-1300px.jpg 1300w, site-images/liv_003181_0002_deriv-1000px.jpg 1000w, site-images/liv_003181_0002_deriv-700px.jpg 700w, site-images/liv_003181_0002_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_012001_0001_deriv-1300px.jpg 1300w, site-images/liv_012001_0001_deriv-1000px.jpg 1000w, site-images/liv_012001_0001_deriv-700px.jpg 700w, site-images/liv_012001_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_012001_0001_deriv-1300px.jpg 1300w, site-images/liv_012001_0001_deriv-1000px.jpg 1000w, site-images/liv_012001_0001_deriv-700px.jpg 700w, site-images/liv_012001_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_014094_0001_deriv-1300px.jpg 1300w, site-images/liv_014094_0001_deriv-1000px.jpg 1000w, site-images/liv_014094_0001_deriv-700px.jpg 700w, site-images/liv_014094_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_014094_0001_deriv-1300px.jpg 1300w, site-images/liv_014094_0001_deriv-1000px.jpg 1000w, site-images/liv_014094_0001_deriv-700px.jpg 700w, site-images/liv_014094_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_020014_0001_deriv-1300px.jpg 1300w, site-images/liv_020014_0001_deriv-1000px.jpg 1000w, site-images/liv_020014_0001_deriv-700px.jpg 700w, site-images/liv_020014_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_020014_0001_deriv-1300px.jpg 1300w, site-images/liv_020014_0001_deriv-1000px.jpg 1000w, site-images/liv_020014_0001_deriv-700px.jpg 700w, site-images/liv_020014_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_023001_0001_deriv-1300px.jpg 1300w, site-images/liv_023001_0001_deriv-1000px.jpg 1000w, site-images/liv_023001_0001_deriv-700px.jpg 700w, site-images/liv_023001_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_023001_0001_deriv-1300px.jpg 1300w, site-images/liv_023001_0001_deriv-1000px.jpg 1000w, site-images/liv_023001_0001_deriv-700px.jpg 700w, site-images/liv_023001_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_023002_0001_deriv-1300px.jpg 1300w, site-images/liv_023002_0001_deriv-1000px.jpg 1000w, site-images/liv_023002_0001_deriv-700px.jpg 700w, site-images/liv_023002_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_023002_0001_deriv-1300px.jpg 1300w, site-images/liv_023002_0001_deriv-1000px.jpg 1000w, site-images/liv_023002_0001_deriv-700px.jpg 700w, site-images/liv_023002_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_023003_0001_deriv-1300px.jpg 1300w, site-images/liv_023003_0001_deriv-1000px.jpg 1000w, site-images/liv_023003_0001_deriv-700px.jpg 700w, site-images/liv_023003_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_023003_0001_deriv-1300px.jpg 1300w, site-images/liv_023003_0001_deriv-1000px.jpg 1000w, site-images/liv_023003_0001_deriv-700px.jpg 700w, site-images/liv_023003_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_023004_0001_deriv-1300px.jpg 1300w, site-images/liv_023004_0001_deriv-1000px.jpg 1000w, site-images/liv_023004_0001_deriv-700px.jpg 700w, site-images/liv_023004_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_023004_0001_deriv-1300px.jpg 1300w, site-images/liv_023004_0001_deriv-1000px.jpg 1000w, site-images/liv_023004_0001_deriv-700px.jpg 700w, site-images/liv_023004_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_023006_0001_deriv-1300px.jpg 1300w, site-images/liv_023006_0001_deriv-1000px.jpg 1000w, site-images/liv_023006_0001_deriv-700px.jpg 700w, site-images/liv_023006_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_023006_0001_deriv-1300px.jpg 1300w, site-images/liv_023006_0001_deriv-1000px.jpg 1000w, site-images/liv_023006_0001_deriv-700px.jpg 700w, site-images/liv_023006_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>srcset="site-images/liv_023011_0001_deriv-1300px.jpg 1300w, site-images/liv_023011_0001_deriv-1000px.jpg 1000w, site-images/liv_023011_0001_deriv-700px.jpg 700w, site-images/liv_023011_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>srcset="site-images/liv_023011_0001_deriv-1300px.jpg 1300w, site-images/liv_023011_0001_deriv-1000px.jpg 1000w, site-images/liv_023011_0001_deriv-700px.jpg 700w, site-images/liv_023011_0001_deriv-400px.jpg 400w"</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDEE9B0-3365-4548-BF0F-97CF318E26D5}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0_dev/05b-responsive-image-code-generator.xlsx
+++ b/0_dev/05b-responsive-image-code-generator.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/One-More-Voice/0_dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8894534-A99F-9A4A-959C-5DB9658A447C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE80F70D-4E44-CD45-ADAE-3088046D7FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="24940" windowHeight="15000" activeTab="1" xr2:uid="{D7F1E4FB-83C6-3D46-B8AA-0A3209542C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Artifacts-1" sheetId="1" r:id="rId1"/>
     <sheet name="Site-images" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="62">
   <si>
     <t>artifact-images/thumbnails/</t>
   </si>
@@ -221,42 +220,6 @@
   </si>
   <si>
     <t>liv_023011_0001_deriv</t>
-  </si>
-  <si>
-    <t>0_template.html</t>
-  </si>
-  <si>
-    <t>analytical_priorities.html</t>
-  </si>
-  <si>
-    <t>artifacts.html</t>
-  </si>
-  <si>
-    <t>bibliography.html</t>
-  </si>
-  <si>
-    <t>books.html</t>
-  </si>
-  <si>
-    <t>coding_guidelines.html</t>
-  </si>
-  <si>
-    <t>collaboration.html</t>
-  </si>
-  <si>
-    <t>contributors.html</t>
-  </si>
-  <si>
-    <t>index.html</t>
-  </si>
-  <si>
-    <t>project_design.html</t>
-  </si>
-  <si>
-    <t>site_map.html</t>
-  </si>
-  <si>
-    <t>texts.html</t>
   </si>
 </sst>
 </file>
@@ -279,18 +242,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -305,13 +262,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2319,82 +2275,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDEE9B0-3365-4548-BF0F-97CF318E26D5}">
-  <dimension ref="A1:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>